--- a/data/outputs/OR_altmetric/42.xlsx
+++ b/data/outputs/OR_altmetric/42.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE119"/>
+  <dimension ref="A1:CF119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1027,6 +1032,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1523,6 +1534,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1768,6 +1782,9 @@
       <c r="CE5" t="n">
         <v>3</v>
       </c>
+      <c r="CF5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2011,6 +2028,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2254,6 +2274,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2505,6 +2528,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2748,6 +2774,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2995,6 +3024,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3246,6 +3278,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3507,6 +3542,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3752,6 +3790,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3995,6 +4036,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4242,6 +4286,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4493,6 +4540,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4736,6 +4786,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4983,6 +5036,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5226,6 +5282,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5469,6 +5528,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5712,6 +5774,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5955,6 +6020,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6202,6 +6270,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6453,6 +6524,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6696,6 +6770,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6931,6 +7008,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7182,6 +7262,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7433,6 +7516,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7684,6 +7770,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7935,6 +8024,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8178,6 +8270,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8413,6 +8508,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8660,6 +8758,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8905,6 +9006,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9160,6 +9264,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9403,6 +9510,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9658,6 +9768,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9907,6 +10020,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10150,6 +10266,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10401,6 +10520,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10658,6 +10780,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10903,6 +11028,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11154,6 +11282,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11407,6 +11538,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11664,6 +11798,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11907,6 +12044,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12155,6 +12295,9 @@
       </c>
       <c r="CE47" t="n">
         <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -12407,6 +12550,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12642,6 +12788,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12885,6 +13034,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13138,6 +13290,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13389,6 +13544,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13628,6 +13786,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13863,6 +14024,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14114,6 +14278,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14365,6 +14532,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14608,6 +14778,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14847,6 +15020,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15086,6 +15262,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15333,6 +15512,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15570,6 +15752,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15813,6 +15998,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16056,6 +16244,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16307,6 +16498,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16558,6 +16752,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16803,6 +17000,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17048,6 +17248,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17291,6 +17494,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17542,6 +17748,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17797,6 +18006,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18042,6 +18254,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18297,6 +18512,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18542,6 +18760,9 @@
       <c r="CE73" t="n">
         <v>1</v>
       </c>
+      <c r="CF73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18799,6 +19020,9 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19052,6 +19276,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19295,6 +19522,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19546,6 +19776,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19799,6 +20032,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20046,6 +20282,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20302,6 +20541,9 @@
       </c>
       <c r="CE80" t="n">
         <v>0</v>
+      </c>
+      <c r="CF80" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="81">
@@ -20544,6 +20786,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20783,6 +21028,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21018,6 +21266,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21261,6 +21512,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21496,6 +21750,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21747,6 +22004,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21990,6 +22250,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22233,6 +22496,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22472,6 +22738,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22707,6 +22976,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22946,6 +23218,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23199,6 +23474,9 @@
         <v>0</v>
       </c>
       <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23448,6 +23726,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23691,6 +23972,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23936,6 +24220,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24191,6 +24478,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24442,6 +24732,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24697,6 +24990,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24936,6 +25232,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25187,6 +25486,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25430,6 +25732,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25673,6 +25978,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25924,6 +26232,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26167,6 +26478,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26410,6 +26724,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26653,6 +26970,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26898,6 +27218,9 @@
         <v>0</v>
       </c>
       <c r="CE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27139,6 +27462,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27384,6 +27710,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27629,6 +27958,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27876,6 +28208,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28124,6 +28459,9 @@
       </c>
       <c r="CE112" t="n">
         <v>0</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -28360,6 +28698,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28611,6 +28952,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28850,6 +29194,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29097,6 +29444,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29350,6 +29700,9 @@
         <v>0</v>
       </c>
       <c r="CE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29595,6 +29948,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29842,6 +30198,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
